--- a/Prototypes/Chicory/C17aObserved.xlsx
+++ b/Prototypes/Chicory/C17aObserved.xlsx
@@ -139,13 +139,13 @@
     <t>LastGrazedDate</t>
   </si>
   <si>
-    <t>Clock.Today</t>
-  </si>
-  <si>
     <t>YieldGm2</t>
   </si>
   <si>
     <t>YieldKgHa</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
@@ -564,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
